--- a/config/xlsx/Common/LaunchConfig_启动配置.xlsx
+++ b/config/xlsx/Common/LaunchConfig_启动配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>启动资源更新包</t>
   </si>
   <si>
+    <t>启动视频</t>
+  </si>
+  <si>
     <t>DNS</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>LaunchResName</t>
   </si>
   <si>
+    <t>VideoName</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
   </si>
   <si>
     <t>Hotfix.dll</t>
+  </si>
+  <si>
+    <t>Video.mp4</t>
   </si>
   <si>
     <t>表头</t>
@@ -1728,12 +1737,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1750,7 +1759,7 @@
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1781,98 +1790,110 @@
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1899,60 +1920,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -1960,104 +1981,104 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
